--- a/generate_cp/json_output/assessment_dataframe.xlsx
+++ b/generate_cp/json_output/assessment_dataframe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,8 +487,8 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>The candidate will respond to a series of questions related to relevant systems and software, ensuring understanding of their functionalities and applications.
-K1: Relevant systems and software (ACC-ICT-4004-1.1)</t>
+          <t>Written assessments evaluate understanding of probability distributions, statistical modeling concepts, and latent variable theory through scenario-based questions.
+K1: Probability theory and statistics (e.g., latent variables, probabilistic modelling) (I)</t>
         </is>
       </c>
     </row>
@@ -500,7 +500,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Others: Case Study</t>
+          <t>Written Exam</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -514,8 +514,8 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>The candidate will perform scenario-based exercises to anticipate potential issues in systems transition, demonstrating problem-solving skills.
-A1: Anticipate potential issues in systems transition (ACC-ICT-4004-1.1)</t>
+          <t>Assessment covers deep learning architectures through detailed questions about GANs, VAEs, and transformer models.
+K9: Deep learning theory and algorithms (e.g., GANs, VAEs, Transformers) (I)</t>
         </is>
       </c>
     </row>
@@ -527,7 +527,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Written Exam</t>
+          <t>Practical Exam</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -541,8 +541,8 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>The candidate will explain the organization's processes through written assessments, showcasing their comprehension of internal workflows.
-K2: Organisation's processes (ACC-ICT-4004-1.1)</t>
+          <t>Practical assessment requires implementing and configuring generative models using established architectures.
+A1: Implement generative models based on existing architectures (I)</t>
         </is>
       </c>
     </row>
@@ -554,7 +554,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Others: Case Study</t>
+          <t>Written Exam</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -568,24 +568,24 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>The candidate will plan and submit a transition strategy for moving from old to new systems, highlighting their planning abilities.
-A2: Plan for smooth transition from the old systems to the new systems (ACC-ICT-4004-1.1)</t>
+          <t>Testing examines familiarity with major ML libraries through framework-specific technical questions.
+K10: Machine learning libraries (e.g., TensorFlow, PyTorch, Keras) (I)</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LO2</t>
+          <t>LO1</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Written Exam</t>
+          <t>Practical Exam</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
@@ -595,8 +595,8 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>The candidate will describe the systems transition process in detail, assessing their theoretical knowledge of change management.
-K3: Systems transition process (ACC-ICT-4004-1.1)</t>
+          <t>Hands-on exercises involve analyzing requirements and selecting appropriate generative solutions for given scenarios.
+A2: Analyse problem statements and requirements to select and implement appropriate generative models (I)</t>
         </is>
       </c>
     </row>
@@ -608,11 +608,11 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Others: Case Study</t>
+          <t>Written Exam</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
@@ -622,8 +622,8 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>The candidate will design a training plan for staff on new systems, showcasing their ability to prepare and educate others.
-A4: Plan for staff training any new systems and software (ACC-ICT-4004-1.1)</t>
+          <t>Candidates demonstrate knowledge of dataset formats and evaluation methods through structured response questions and format identification tasks.
+K2: Common dataset formats and evaluation methodologies for generative tasks (I)</t>
         </is>
       </c>
     </row>
@@ -649,8 +649,8 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>The candidate will discuss emerging technological trends, reflecting their awareness of advancements like blockchain and AI.
-K4: Emerging technological trends such as block chain, machine learning, artificial intelligence, robotic process automation and digital currency (ACC-ICT-4004-1.1)</t>
+          <t>Questions focus on data quality principles, cleaning methodologies, and preprocessing requirements for AI model training.
+K7: Data pre-processing, de-duplication and cleaning techniques (including understanding of training data requirements for AI models, common data quality issues) (I)</t>
         </is>
       </c>
     </row>
@@ -662,7 +662,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Others: Case Study</t>
+          <t>Practical Exam</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -676,8 +676,197 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>The candidate will identify and propose opportunities to adopt emerging technologies, demonstrating their ability to innovate.
-A3: Identify potential opportunities to adopt emerging technologies (ACC-ICT-4004-1.1)</t>
+          <t>Practical tasks involving data preprocessing, cleaning, and preparation using industry-standard libraries.
+A5: Preprocess and prepare data for generative training (e.g., clean and format datasets, use libraries (e.g., Pandas, NumPy) for data manipulation, split data into training, validation and test sets) (I)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>LO2</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Written Exam</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>10</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" t="n">
+        <v>20</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Evaluation tests comprehension of embedding techniques and tokenization methods through technical analysis questions.
+K8: Embeddings and tokenisation (I)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>LO3</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Written Exam</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>10</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" t="n">
+        <v>20</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Evaluation covers neural network optimization principles through problem-solving questions focused on training methodology and convergence concepts.
+K4: Optimisation techniques for training neural networks (I)</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>LO3</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Written Exam</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" t="n">
+        <v>20</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Testing addresses distributed computing knowledge through questions on parallel processing architectures and cluster management principles.
+K5: Parallel cluster training and inference (I)</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>LO3</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Practical Exam</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>10</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" t="n">
+        <v>20</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Performance evaluation through practical implementation of model training using standard benchmark datasets.
+A3: Train generative models on benchmark datasets (I)</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>LO3</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Written Exam</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>10</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" t="n">
+        <v>20</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Assessment examines understanding of various loss functions and evaluation metrics through comparative analysis questions.
+K6: Loss functions and evaluation metrics for generative tasks (I)</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>LO4</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Written Exam</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>10</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" t="n">
+        <v>20</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Assessment includes technical questions on fine-tuning approaches, parameter optimization, and inference processes in model development.
+K3: Fine-tuning techniques (e.g., supervised fine-tuning, parameter-efficient fine-tuning, perform inference) (I)</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>LO4</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Practical Exam</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>10</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" t="n">
+        <v>20</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Project-based assessment requiring analysis of model limitations and documented improvement proposals.
+A4: Identify limitations and propose initial improvements to models (I)</t>
         </is>
       </c>
     </row>
